--- a/data/pca/factorExposure/factorExposure_2016-02-02.xlsx
+++ b/data/pca/factorExposure/factorExposure_2016-02-02.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="106" uniqueCount="106">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="110" uniqueCount="110">
   <si>
     <t>factor1</t>
   </si>
@@ -23,6 +23,18 @@
   </si>
   <si>
     <t>factor3</t>
+  </si>
+  <si>
+    <t>factor4</t>
+  </si>
+  <si>
+    <t>factor5</t>
+  </si>
+  <si>
+    <t>factor6</t>
+  </si>
+  <si>
+    <t>factor7</t>
   </si>
   <si>
     <t>Constellation software inc/can</t>
@@ -689,13 +701,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D104"/>
+  <dimension ref="A1:H104"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:4">
+    <row r="1" spans="1:8">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -705,52 +717,100 @@
       <c r="D1" s="1" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="2" spans="1:4">
+      <c r="E1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8">
       <c r="A2" s="1" t="s">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="B2">
-        <v>-0.01814187556142577</v>
+        <v>-0.02144138507676409</v>
       </c>
       <c r="C2">
-        <v>-0.0440350743006624</v>
+        <v>0.03744845366586741</v>
       </c>
       <c r="D2">
-        <v>-0.1110065766878713</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4">
+        <v>0.120023563427228</v>
+      </c>
+      <c r="E2">
+        <v>-0.091125400839478</v>
+      </c>
+      <c r="F2">
+        <v>-0.01170213439230709</v>
+      </c>
+      <c r="G2">
+        <v>0.03662975645591392</v>
+      </c>
+      <c r="H2">
+        <v>-0.08952080602027114</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8">
       <c r="A3" s="1" t="s">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="B3">
-        <v>-0.02665877669306186</v>
+        <v>-0.01603711928341306</v>
       </c>
       <c r="C3">
-        <v>-0.09041824556893278</v>
+        <v>0.04345489068196366</v>
       </c>
       <c r="D3">
-        <v>-0.122453932229103</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4">
+        <v>0.07870100044746343</v>
+      </c>
+      <c r="E3">
+        <v>-0.1116561785267208</v>
+      </c>
+      <c r="F3">
+        <v>0.03033778521483633</v>
+      </c>
+      <c r="G3">
+        <v>0.08505406655186443</v>
+      </c>
+      <c r="H3">
+        <v>-0.06274160485865782</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8">
       <c r="A4" s="1" t="s">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="B4">
-        <v>-0.06028616800365793</v>
+        <v>-0.06209769890954098</v>
       </c>
       <c r="C4">
-        <v>-0.07041499462605336</v>
+        <v>0.06789445008369129</v>
       </c>
       <c r="D4">
-        <v>-0.0951385185056625</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4">
+        <v>0.1160322184514032</v>
+      </c>
+      <c r="E4">
+        <v>-0.08577963367682044</v>
+      </c>
+      <c r="F4">
+        <v>0.01401379873747421</v>
+      </c>
+      <c r="G4">
+        <v>-0.03449072737109808</v>
+      </c>
+      <c r="H4">
+        <v>0.0292256540713628</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8">
       <c r="A5" s="1" t="s">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="B5">
         <v>0</v>
@@ -761,164 +821,308 @@
       <c r="D5">
         <v>0</v>
       </c>
-    </row>
-    <row r="6" spans="1:4">
+      <c r="E5">
+        <v>0</v>
+      </c>
+      <c r="F5">
+        <v>0</v>
+      </c>
+      <c r="G5">
+        <v>0</v>
+      </c>
+      <c r="H5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8">
       <c r="A6" s="1" t="s">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="B6">
-        <v>-0.04414036298714918</v>
+        <v>-0.04118457570423545</v>
       </c>
       <c r="C6">
-        <v>-0.03988219668636853</v>
+        <v>0.02835947559515375</v>
       </c>
       <c r="D6">
-        <v>-0.09980734146639582</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4">
+        <v>0.1176177245184025</v>
+      </c>
+      <c r="E6">
+        <v>-0.05737901573328421</v>
+      </c>
+      <c r="F6">
+        <v>0.01270622621794116</v>
+      </c>
+      <c r="G6">
+        <v>0.003274852080297315</v>
+      </c>
+      <c r="H6">
+        <v>-0.006912669493961574</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8">
       <c r="A7" s="1" t="s">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="B7">
-        <v>-0.02831807437012655</v>
+        <v>-0.02163743987982776</v>
       </c>
       <c r="C7">
-        <v>-0.03710988854955844</v>
+        <v>0.03646306727826571</v>
       </c>
       <c r="D7">
-        <v>-0.0708584670864576</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4">
+        <v>0.08463478538562483</v>
+      </c>
+      <c r="E7">
+        <v>-0.06386225930049347</v>
+      </c>
+      <c r="F7">
+        <v>0.01988154171221106</v>
+      </c>
+      <c r="G7">
+        <v>-0.05847710328784919</v>
+      </c>
+      <c r="H7">
+        <v>-0.08430615493467503</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8">
       <c r="A8" s="1" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="B8">
-        <v>-0.008264388701434408</v>
+        <v>-0.008247463279733901</v>
       </c>
       <c r="C8">
-        <v>-0.04595527712177705</v>
+        <v>0.03718755729579502</v>
       </c>
       <c r="D8">
-        <v>-0.06465010226974535</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4">
+        <v>0.07547598912659997</v>
+      </c>
+      <c r="E8">
+        <v>-0.0481500379482209</v>
+      </c>
+      <c r="F8">
+        <v>0.02147571822392589</v>
+      </c>
+      <c r="G8">
+        <v>0.006531502948163492</v>
+      </c>
+      <c r="H8">
+        <v>-0.02593217394552434</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8">
       <c r="A9" s="1" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="B9">
-        <v>-0.04291501821925284</v>
+        <v>-0.04563472678792303</v>
       </c>
       <c r="C9">
-        <v>-0.05181316809691152</v>
+        <v>0.05606088455856013</v>
       </c>
       <c r="D9">
-        <v>-0.08407041088212538</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4">
+        <v>0.1036074546165796</v>
+      </c>
+      <c r="E9">
+        <v>-0.05747011588915054</v>
+      </c>
+      <c r="F9">
+        <v>0.0009201237168353017</v>
+      </c>
+      <c r="G9">
+        <v>-0.0382421827018706</v>
+      </c>
+      <c r="H9">
+        <v>0.001663234740050512</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8">
       <c r="A10" s="1" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="B10">
-        <v>-0.08446812028861637</v>
+        <v>-0.1118772925991792</v>
       </c>
       <c r="C10">
-        <v>0.1836365846364401</v>
+        <v>-0.1965187002236745</v>
       </c>
       <c r="D10">
-        <v>-0.01597071023839968</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4">
+        <v>-0.001956379778691313</v>
+      </c>
+      <c r="E10">
+        <v>-0.04974864555405568</v>
+      </c>
+      <c r="F10">
+        <v>0.0110992867466257</v>
+      </c>
+      <c r="G10">
+        <v>-0.02752799245567502</v>
+      </c>
+      <c r="H10">
+        <v>0.02435720714427729</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8">
       <c r="A11" s="1" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="B11">
-        <v>-0.04279425133888886</v>
+        <v>-0.03566804984467023</v>
       </c>
       <c r="C11">
-        <v>-0.04994494997953885</v>
+        <v>0.04583448966581248</v>
       </c>
       <c r="D11">
-        <v>-0.05258198150557197</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4">
+        <v>0.05485019942845051</v>
+      </c>
+      <c r="E11">
+        <v>-0.02423633623922018</v>
+      </c>
+      <c r="F11">
+        <v>0.009493696482686579</v>
+      </c>
+      <c r="G11">
+        <v>-0.04273315779561504</v>
+      </c>
+      <c r="H11">
+        <v>-0.0523582318281858</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8">
       <c r="A12" s="1" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="B12">
-        <v>-0.04727579657271824</v>
+        <v>-0.03879171507210645</v>
       </c>
       <c r="C12">
-        <v>-0.04690507209144763</v>
+        <v>0.04525762067071887</v>
       </c>
       <c r="D12">
-        <v>-0.04035226582994257</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4">
+        <v>0.0510894548579099</v>
+      </c>
+      <c r="E12">
+        <v>-0.03509113424602024</v>
+      </c>
+      <c r="F12">
+        <v>0.001379308439003672</v>
+      </c>
+      <c r="G12">
+        <v>-0.03918380186979373</v>
+      </c>
+      <c r="H12">
+        <v>-0.05933417742202554</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8">
       <c r="A13" s="1" t="s">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="B13">
-        <v>-0.01951275198328169</v>
+        <v>-0.02056518254899501</v>
       </c>
       <c r="C13">
-        <v>-0.04680764056880216</v>
+        <v>0.03837727382983655</v>
       </c>
       <c r="D13">
-        <v>-0.0892739331518782</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4">
+        <v>0.1188150485496778</v>
+      </c>
+      <c r="E13">
+        <v>-0.0997078365190766</v>
+      </c>
+      <c r="F13">
+        <v>0.02293169579407152</v>
+      </c>
+      <c r="G13">
+        <v>-0.04653254105154853</v>
+      </c>
+      <c r="H13">
+        <v>-0.07044777323419486</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8">
       <c r="A14" s="1" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="B14">
-        <v>-0.01524577136282227</v>
+        <v>-0.009399202463697342</v>
       </c>
       <c r="C14">
-        <v>-0.03094009085352478</v>
+        <v>0.02734758561679646</v>
       </c>
       <c r="D14">
-        <v>-0.06240415693578191</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4">
+        <v>0.07590856385491566</v>
+      </c>
+      <c r="E14">
+        <v>-0.05971717396280023</v>
+      </c>
+      <c r="F14">
+        <v>-0.009084202735692465</v>
+      </c>
+      <c r="G14">
+        <v>-0.03963440304420308</v>
+      </c>
+      <c r="H14">
+        <v>-0.08407047268395224</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8">
       <c r="A15" s="1" t="s">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="B15">
-        <v>0</v>
+        <v>-0.0008385610161686921</v>
       </c>
       <c r="C15">
-        <v>0</v>
+        <v>0.006397449128550402</v>
       </c>
       <c r="D15">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="16" spans="1:4">
+        <v>0.01966220488243196</v>
+      </c>
+      <c r="E15">
+        <v>-0.004834012206462145</v>
+      </c>
+      <c r="F15">
+        <v>-0.001514059232511863</v>
+      </c>
+      <c r="G15">
+        <v>0.001939095640172341</v>
+      </c>
+      <c r="H15">
+        <v>-0.01231741354113237</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8">
       <c r="A16" s="1" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="B16">
-        <v>-0.0425479973536252</v>
+        <v>-0.03543860908482641</v>
       </c>
       <c r="C16">
-        <v>-0.04998459200917743</v>
+        <v>0.04571071559480012</v>
       </c>
       <c r="D16">
-        <v>-0.05082074011392414</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4">
+        <v>0.05762307249025265</v>
+      </c>
+      <c r="E16">
+        <v>-0.03514438176744199</v>
+      </c>
+      <c r="F16">
+        <v>-0.01042949432794161</v>
+      </c>
+      <c r="G16">
+        <v>-0.03481785383751067</v>
+      </c>
+      <c r="H16">
+        <v>-0.05887644068959308</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8">
       <c r="A17" s="1" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="B17">
         <v>0</v>
@@ -929,10 +1133,22 @@
       <c r="D17">
         <v>0</v>
       </c>
-    </row>
-    <row r="18" spans="1:4">
+      <c r="E17">
+        <v>0</v>
+      </c>
+      <c r="F17">
+        <v>0</v>
+      </c>
+      <c r="G17">
+        <v>0</v>
+      </c>
+      <c r="H17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8">
       <c r="A18" s="1" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="B18">
         <v>0</v>
@@ -943,122 +1159,230 @@
       <c r="D18">
         <v>0</v>
       </c>
-    </row>
-    <row r="19" spans="1:4">
+      <c r="E18">
+        <v>0</v>
+      </c>
+      <c r="F18">
+        <v>0</v>
+      </c>
+      <c r="G18">
+        <v>0</v>
+      </c>
+      <c r="H18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8">
       <c r="A19" s="1" t="s">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="B19">
-        <v>-0.02039384544721178</v>
+        <v>-0.01576909726541579</v>
       </c>
       <c r="C19">
-        <v>-0.04846533627020297</v>
+        <v>0.03495485922587362</v>
       </c>
       <c r="D19">
-        <v>-0.1522256466512721</v>
-      </c>
-    </row>
-    <row r="20" spans="1:4">
+        <v>0.1298285089149893</v>
+      </c>
+      <c r="E19">
+        <v>-0.08889617315210326</v>
+      </c>
+      <c r="F19">
+        <v>-0.03155982655106834</v>
+      </c>
+      <c r="G19">
+        <v>-0.002925380329875575</v>
+      </c>
+      <c r="H19">
+        <v>-0.04871028288331645</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8">
       <c r="A20" s="1" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="B20">
-        <v>-0.02249376873647208</v>
+        <v>-0.01765166172488606</v>
       </c>
       <c r="C20">
-        <v>-0.04568664269507998</v>
+        <v>0.03928218222489061</v>
       </c>
       <c r="D20">
-        <v>-0.07176999616113799</v>
-      </c>
-    </row>
-    <row r="21" spans="1:4">
+        <v>0.08433982659958481</v>
+      </c>
+      <c r="E20">
+        <v>-0.07353929382441564</v>
+      </c>
+      <c r="F20">
+        <v>-0.006021394389803059</v>
+      </c>
+      <c r="G20">
+        <v>-0.02263792040502553</v>
+      </c>
+      <c r="H20">
+        <v>-0.04046204167435073</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8">
       <c r="A21" s="1" t="s">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="B21">
-        <v>-0.01839454981717233</v>
+        <v>-0.01670624694047364</v>
       </c>
       <c r="C21">
-        <v>-0.04754129927394644</v>
+        <v>0.03838170178088548</v>
       </c>
       <c r="D21">
-        <v>-0.09500299939842317</v>
-      </c>
-    </row>
-    <row r="22" spans="1:4">
+        <v>0.1205892601300184</v>
+      </c>
+      <c r="E21">
+        <v>-0.1195041328522039</v>
+      </c>
+      <c r="F21">
+        <v>-0.02078759337936015</v>
+      </c>
+      <c r="G21">
+        <v>-0.07161894676404834</v>
+      </c>
+      <c r="H21">
+        <v>-0.07202767319075941</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8">
       <c r="A22" s="1" t="s">
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="B22">
-        <v>0.001328497853966132</v>
+        <v>-0.005632744420371156</v>
       </c>
       <c r="C22">
-        <v>-0.01337267414287105</v>
+        <v>0.03143262793950224</v>
       </c>
       <c r="D22">
-        <v>-0.04309192821383828</v>
-      </c>
-    </row>
-    <row r="23" spans="1:4">
+        <v>0.1027788005836069</v>
+      </c>
+      <c r="E22">
+        <v>-0.04859940086482378</v>
+      </c>
+      <c r="F22">
+        <v>0.06834308545943603</v>
+      </c>
+      <c r="G22">
+        <v>0.05827587794282087</v>
+      </c>
+      <c r="H22">
+        <v>0.007685060591764038</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8">
       <c r="A23" s="1" t="s">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="B23">
-        <v>0.00130090403610098</v>
+        <v>-0.005736712481069639</v>
       </c>
       <c r="C23">
-        <v>-0.01334785409131147</v>
+        <v>0.03159435800349276</v>
       </c>
       <c r="D23">
-        <v>-0.04267246605949388</v>
-      </c>
-    </row>
-    <row r="24" spans="1:4">
+        <v>0.102115040846626</v>
+      </c>
+      <c r="E23">
+        <v>-0.04877277951913828</v>
+      </c>
+      <c r="F23">
+        <v>0.06798821137603173</v>
+      </c>
+      <c r="G23">
+        <v>0.05765733308310621</v>
+      </c>
+      <c r="H23">
+        <v>0.008051770037984747</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8">
       <c r="A24" s="1" t="s">
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="B24">
-        <v>-0.03930073113935392</v>
+        <v>-0.03682667269599814</v>
       </c>
       <c r="C24">
-        <v>-0.05136984066330376</v>
+        <v>0.05393162483996893</v>
       </c>
       <c r="D24">
-        <v>-0.05197336808640846</v>
-      </c>
-    </row>
-    <row r="25" spans="1:4">
+        <v>0.06006056749378778</v>
+      </c>
+      <c r="E24">
+        <v>-0.03833948307948495</v>
+      </c>
+      <c r="F24">
+        <v>-0.006712418893462305</v>
+      </c>
+      <c r="G24">
+        <v>-0.05081402924537323</v>
+      </c>
+      <c r="H24">
+        <v>-0.06039587632802822</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8">
       <c r="A25" s="1" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="B25">
-        <v>-0.04876469326421026</v>
+        <v>-0.04238843371848736</v>
       </c>
       <c r="C25">
-        <v>-0.05724003135018067</v>
+        <v>0.05376568119164665</v>
       </c>
       <c r="D25">
-        <v>-0.04920253498236544</v>
-      </c>
-    </row>
-    <row r="26" spans="1:4">
+        <v>0.05425492539175547</v>
+      </c>
+      <c r="E25">
+        <v>-0.0370397139187097</v>
+      </c>
+      <c r="F25">
+        <v>0.009519844044863607</v>
+      </c>
+      <c r="G25">
+        <v>-0.05150581405332486</v>
+      </c>
+      <c r="H25">
+        <v>-0.04830285987460625</v>
+      </c>
+    </row>
+    <row r="26" spans="1:8">
       <c r="A26" s="1" t="s">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="B26">
-        <v>-0.02419956990450303</v>
+        <v>-0.02039023841929912</v>
       </c>
       <c r="C26">
-        <v>-0.01482111997459357</v>
+        <v>0.01716603192326236</v>
       </c>
       <c r="D26">
-        <v>-0.04974507577770564</v>
-      </c>
-    </row>
-    <row r="27" spans="1:4">
+        <v>0.06332953054554585</v>
+      </c>
+      <c r="E26">
+        <v>-0.04017281287401211</v>
+      </c>
+      <c r="F26">
+        <v>-0.0096394241406953</v>
+      </c>
+      <c r="G26">
+        <v>-0.01265314784624308</v>
+      </c>
+      <c r="H26">
+        <v>-0.04694689571991665</v>
+      </c>
+    </row>
+    <row r="27" spans="1:8">
       <c r="A27" s="1" t="s">
-        <v>28</v>
+        <v>32</v>
       </c>
       <c r="B27">
         <v>0</v>
@@ -1069,136 +1393,256 @@
       <c r="D27">
         <v>0</v>
       </c>
-    </row>
-    <row r="28" spans="1:4">
+      <c r="E27">
+        <v>0</v>
+      </c>
+      <c r="F27">
+        <v>0</v>
+      </c>
+      <c r="G27">
+        <v>0</v>
+      </c>
+      <c r="H27">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:8">
       <c r="A28" s="1" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="B28">
-        <v>-0.1138837540602714</v>
+        <v>-0.1581673332800318</v>
       </c>
       <c r="C28">
-        <v>0.2695704138886329</v>
+        <v>-0.2628238698802304</v>
       </c>
       <c r="D28">
-        <v>0.02865103198624726</v>
-      </c>
-    </row>
-    <row r="29" spans="1:4">
+        <v>-0.01925681788469114</v>
+      </c>
+      <c r="E28">
+        <v>-0.07673212368648721</v>
+      </c>
+      <c r="F28">
+        <v>0.006119957341351663</v>
+      </c>
+      <c r="G28">
+        <v>-0.06908380028077539</v>
+      </c>
+      <c r="H28">
+        <v>0.02511168087237652</v>
+      </c>
+    </row>
+    <row r="29" spans="1:8">
       <c r="A29" s="1" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="B29">
-        <v>-0.009744781508108282</v>
+        <v>-0.008870667863746913</v>
       </c>
       <c r="C29">
-        <v>-0.02859609029891319</v>
+        <v>0.02492587421569712</v>
       </c>
       <c r="D29">
-        <v>-0.04717450153246038</v>
-      </c>
-    </row>
-    <row r="30" spans="1:4">
+        <v>0.06832645262737373</v>
+      </c>
+      <c r="E29">
+        <v>-0.06387770801364492</v>
+      </c>
+      <c r="F29">
+        <v>0.002623658509229273</v>
+      </c>
+      <c r="G29">
+        <v>-0.04828474364396747</v>
+      </c>
+      <c r="H29">
+        <v>-0.07601274754781916</v>
+      </c>
+    </row>
+    <row r="30" spans="1:8">
       <c r="A30" s="1" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="B30">
-        <v>-0.04484413080705491</v>
+        <v>-0.04524317490491826</v>
       </c>
       <c r="C30">
-        <v>-0.03472990395274043</v>
+        <v>0.05127612016748318</v>
       </c>
       <c r="D30">
-        <v>-0.1381583007358176</v>
-      </c>
-    </row>
-    <row r="31" spans="1:4">
+        <v>0.16333947782753</v>
+      </c>
+      <c r="E30">
+        <v>-0.05056307523378491</v>
+      </c>
+      <c r="F30">
+        <v>-0.002531042303986729</v>
+      </c>
+      <c r="G30">
+        <v>0.02266069610536751</v>
+      </c>
+      <c r="H30">
+        <v>-0.019211525332455</v>
+      </c>
+    </row>
+    <row r="31" spans="1:8">
       <c r="A31" s="1" t="s">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="B31">
-        <v>-0.06926001726111117</v>
+        <v>-0.0642727571947546</v>
       </c>
       <c r="C31">
-        <v>-0.06305401441500529</v>
+        <v>0.07076658192724267</v>
       </c>
       <c r="D31">
-        <v>-0.03377693419264935</v>
-      </c>
-    </row>
-    <row r="32" spans="1:4">
+        <v>0.04123619735092416</v>
+      </c>
+      <c r="E31">
+        <v>-0.06864249913798569</v>
+      </c>
+      <c r="F31">
+        <v>0.03598385171346179</v>
+      </c>
+      <c r="G31">
+        <v>-0.0304874999739334</v>
+      </c>
+      <c r="H31">
+        <v>-0.0244964745661903</v>
+      </c>
+    </row>
+    <row r="32" spans="1:8">
       <c r="A32" s="1" t="s">
-        <v>33</v>
+        <v>37</v>
       </c>
       <c r="B32">
-        <v>-0.001643097154057125</v>
+        <v>-0.01004461339795821</v>
       </c>
       <c r="C32">
-        <v>-0.01261736579696902</v>
+        <v>0.02070826023384513</v>
       </c>
       <c r="D32">
-        <v>-0.05352043207553363</v>
-      </c>
-    </row>
-    <row r="33" spans="1:4">
+        <v>0.07907155227398702</v>
+      </c>
+      <c r="E32">
+        <v>-0.1020284374964752</v>
+      </c>
+      <c r="F32">
+        <v>-0.01223087808199272</v>
+      </c>
+      <c r="G32">
+        <v>-0.06537949524799198</v>
+      </c>
+      <c r="H32">
+        <v>-0.05208868323692203</v>
+      </c>
+    </row>
+    <row r="33" spans="1:8">
       <c r="A33" s="1" t="s">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="B33">
-        <v>-0.03346584016166221</v>
+        <v>-0.02857344646002478</v>
       </c>
       <c r="C33">
-        <v>-0.04646731420534739</v>
+        <v>0.04540676546915707</v>
       </c>
       <c r="D33">
-        <v>-0.1093868241922269</v>
-      </c>
-    </row>
-    <row r="34" spans="1:4">
+        <v>0.1207711745062878</v>
+      </c>
+      <c r="E33">
+        <v>-0.07583523739123123</v>
+      </c>
+      <c r="F33">
+        <v>0.01393680992367374</v>
+      </c>
+      <c r="G33">
+        <v>-0.04167740086319013</v>
+      </c>
+      <c r="H33">
+        <v>-0.05172816068742119</v>
+      </c>
+    </row>
+    <row r="34" spans="1:8">
       <c r="A34" s="1" t="s">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="B34">
-        <v>-0.04297554389702477</v>
+        <v>-0.03742460855605857</v>
       </c>
       <c r="C34">
-        <v>-0.06166223985156027</v>
+        <v>0.06116584482438099</v>
       </c>
       <c r="D34">
-        <v>-0.05709391019924109</v>
-      </c>
-    </row>
-    <row r="35" spans="1:4">
+        <v>0.05709045307570365</v>
+      </c>
+      <c r="E34">
+        <v>-0.01848123152850309</v>
+      </c>
+      <c r="F34">
+        <v>-0.0009121413036672224</v>
+      </c>
+      <c r="G34">
+        <v>-0.05775377315209455</v>
+      </c>
+      <c r="H34">
+        <v>-0.06759657298808629</v>
+      </c>
+    </row>
+    <row r="35" spans="1:8">
       <c r="A35" s="1" t="s">
-        <v>36</v>
+        <v>40</v>
       </c>
       <c r="B35">
-        <v>0</v>
+        <v>-0.0003106097295202012</v>
       </c>
       <c r="C35">
-        <v>0</v>
+        <v>3.142095159105606e-05</v>
       </c>
       <c r="D35">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="36" spans="1:4">
+        <v>0.001607327279775684</v>
+      </c>
+      <c r="E35">
+        <v>-0.0002031439031025206</v>
+      </c>
+      <c r="F35">
+        <v>0.0003101288180847153</v>
+      </c>
+      <c r="G35">
+        <v>-0.0005905832733727509</v>
+      </c>
+      <c r="H35">
+        <v>-0.002033566370872332</v>
+      </c>
+    </row>
+    <row r="36" spans="1:8">
       <c r="A36" s="1" t="s">
-        <v>37</v>
+        <v>41</v>
       </c>
       <c r="B36">
-        <v>-0.02264545553843531</v>
+        <v>-0.01927721694676247</v>
       </c>
       <c r="C36">
-        <v>-0.02123231142347667</v>
+        <v>0.01704933111717455</v>
       </c>
       <c r="D36">
-        <v>-0.05369749423936925</v>
-      </c>
-    </row>
-    <row r="37" spans="1:4">
+        <v>0.06792952702295425</v>
+      </c>
+      <c r="E36">
+        <v>-0.05799763653179978</v>
+      </c>
+      <c r="F36">
+        <v>-0.004724758283464456</v>
+      </c>
+      <c r="G36">
+        <v>-0.03361028284103185</v>
+      </c>
+      <c r="H36">
+        <v>-0.04107323019411172</v>
+      </c>
+    </row>
+    <row r="37" spans="1:8">
       <c r="A37" s="1" t="s">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="B37">
         <v>0</v>
@@ -1209,66 +1653,126 @@
       <c r="D37">
         <v>0</v>
       </c>
-    </row>
-    <row r="38" spans="1:4">
+      <c r="E37">
+        <v>0</v>
+      </c>
+      <c r="F37">
+        <v>0</v>
+      </c>
+      <c r="G37">
+        <v>0</v>
+      </c>
+      <c r="H37">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:8">
       <c r="A38" s="1" t="s">
-        <v>39</v>
+        <v>43</v>
       </c>
       <c r="B38">
-        <v>-0.03459013549076774</v>
+        <v>-0.02576927717031171</v>
       </c>
       <c r="C38">
-        <v>-0.03650512309976953</v>
+        <v>0.02579289463549</v>
       </c>
       <c r="D38">
-        <v>-0.03202237040944492</v>
-      </c>
-    </row>
-    <row r="39" spans="1:4">
+        <v>0.05387936172152601</v>
+      </c>
+      <c r="E38">
+        <v>-0.04605657546853138</v>
+      </c>
+      <c r="F38">
+        <v>-0.004178203462166145</v>
+      </c>
+      <c r="G38">
+        <v>0.01270096375842724</v>
+      </c>
+      <c r="H38">
+        <v>-0.03749216535267165</v>
+      </c>
+    </row>
+    <row r="39" spans="1:8">
       <c r="A39" s="1" t="s">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="B39">
-        <v>-0.04858848196323239</v>
+        <v>-0.04302787922565215</v>
       </c>
       <c r="C39">
-        <v>-0.05952338597578731</v>
+        <v>0.06118846443546894</v>
       </c>
       <c r="D39">
-        <v>-0.07218319445461371</v>
-      </c>
-    </row>
-    <row r="40" spans="1:4">
+        <v>0.09247085147082104</v>
+      </c>
+      <c r="E39">
+        <v>-0.03343356398972566</v>
+      </c>
+      <c r="F39">
+        <v>-0.02041740034150048</v>
+      </c>
+      <c r="G39">
+        <v>-0.03851145255171878</v>
+      </c>
+      <c r="H39">
+        <v>-0.07768194506540739</v>
+      </c>
+    </row>
+    <row r="40" spans="1:8">
       <c r="A40" s="1" t="s">
-        <v>41</v>
+        <v>45</v>
       </c>
       <c r="B40">
-        <v>-0.01366208322993635</v>
+        <v>-0.01676607122433026</v>
       </c>
       <c r="C40">
-        <v>-0.05545254608434137</v>
+        <v>0.03939334391733549</v>
       </c>
       <c r="D40">
-        <v>-0.06528639514869777</v>
-      </c>
-    </row>
-    <row r="41" spans="1:4">
+        <v>0.08364866449402995</v>
+      </c>
+      <c r="E40">
+        <v>-0.1002659356539998</v>
+      </c>
+      <c r="F40">
+        <v>0.03983448979695384</v>
+      </c>
+      <c r="G40">
+        <v>-0.02094792032358016</v>
+      </c>
+      <c r="H40">
+        <v>-0.1301740158621811</v>
+      </c>
+    </row>
+    <row r="41" spans="1:8">
       <c r="A41" s="1" t="s">
-        <v>42</v>
+        <v>46</v>
       </c>
       <c r="B41">
-        <v>-0.02745489113083599</v>
+        <v>-0.02244958045452994</v>
       </c>
       <c r="C41">
-        <v>-0.01309348074066003</v>
+        <v>0.01035213785757775</v>
       </c>
       <c r="D41">
-        <v>-0.04910017790276654</v>
-      </c>
-    </row>
-    <row r="42" spans="1:4">
+        <v>0.04957568478688712</v>
+      </c>
+      <c r="E41">
+        <v>-0.07034372521968106</v>
+      </c>
+      <c r="F41">
+        <v>-0.005295137915173257</v>
+      </c>
+      <c r="G41">
+        <v>-0.02310663682857183</v>
+      </c>
+      <c r="H41">
+        <v>-0.04128014084622489</v>
+      </c>
+    </row>
+    <row r="42" spans="1:8">
       <c r="A42" s="1" t="s">
-        <v>43</v>
+        <v>47</v>
       </c>
       <c r="B42">
         <v>0</v>
@@ -1279,38 +1783,74 @@
       <c r="D42">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="1:4">
+      <c r="E42">
+        <v>0</v>
+      </c>
+      <c r="F42">
+        <v>0</v>
+      </c>
+      <c r="G42">
+        <v>0</v>
+      </c>
+      <c r="H42">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="1:8">
       <c r="A43" s="1" t="s">
-        <v>44</v>
+        <v>48</v>
       </c>
       <c r="B43">
-        <v>-0.04365861641617354</v>
+        <v>-0.02931530961845636</v>
       </c>
       <c r="C43">
-        <v>-0.03162138459295262</v>
+        <v>0.02280500931726244</v>
       </c>
       <c r="D43">
-        <v>-0.08529202239996594</v>
-      </c>
-    </row>
-    <row r="44" spans="1:4">
+        <v>0.08196155597073738</v>
+      </c>
+      <c r="E43">
+        <v>-0.06758323929518642</v>
+      </c>
+      <c r="F43">
+        <v>0.006737228682663686</v>
+      </c>
+      <c r="G43">
+        <v>-0.03489420347005848</v>
+      </c>
+      <c r="H43">
+        <v>-0.06032330688055094</v>
+      </c>
+    </row>
+    <row r="44" spans="1:8">
       <c r="A44" s="1" t="s">
-        <v>45</v>
+        <v>49</v>
       </c>
       <c r="B44">
-        <v>-0.01705332989311861</v>
+        <v>-0.01925330057158106</v>
       </c>
       <c r="C44">
-        <v>-0.05971469569331722</v>
+        <v>0.04359958502389442</v>
       </c>
       <c r="D44">
-        <v>-0.05529492089644692</v>
-      </c>
-    </row>
-    <row r="45" spans="1:4">
+        <v>0.0830568014861742</v>
+      </c>
+      <c r="E44">
+        <v>-0.08216181554271731</v>
+      </c>
+      <c r="F44">
+        <v>-0.01855669559168621</v>
+      </c>
+      <c r="G44">
+        <v>-0.03426954439850481</v>
+      </c>
+      <c r="H44">
+        <v>-0.0475289184551383</v>
+      </c>
+    </row>
+    <row r="45" spans="1:8">
       <c r="A45" s="1" t="s">
-        <v>46</v>
+        <v>50</v>
       </c>
       <c r="B45">
         <v>0</v>
@@ -1321,52 +1861,100 @@
       <c r="D45">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="1:4">
+      <c r="E45">
+        <v>0</v>
+      </c>
+      <c r="F45">
+        <v>0</v>
+      </c>
+      <c r="G45">
+        <v>0</v>
+      </c>
+      <c r="H45">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="1:8">
       <c r="A46" s="1" t="s">
-        <v>47</v>
+        <v>51</v>
       </c>
       <c r="B46">
-        <v>-0.01905628495607023</v>
+        <v>-0.01664508587489626</v>
       </c>
       <c r="C46">
-        <v>-0.03121389666308841</v>
+        <v>0.03105781746323254</v>
       </c>
       <c r="D46">
-        <v>-0.04569021691747694</v>
-      </c>
-    </row>
-    <row r="47" spans="1:4">
+        <v>0.06740362085303354</v>
+      </c>
+      <c r="E46">
+        <v>-0.06664175761087458</v>
+      </c>
+      <c r="F46">
+        <v>-0.01572142172412017</v>
+      </c>
+      <c r="G46">
+        <v>-0.06513449563784804</v>
+      </c>
+      <c r="H46">
+        <v>-0.0782064812146854</v>
+      </c>
+    </row>
+    <row r="47" spans="1:8">
       <c r="A47" s="1" t="s">
-        <v>48</v>
+        <v>52</v>
       </c>
       <c r="B47">
-        <v>-0.09706174595263771</v>
+        <v>-0.09582416112536044</v>
       </c>
       <c r="C47">
-        <v>-0.0822491124150478</v>
+        <v>0.0872775052114257</v>
       </c>
       <c r="D47">
-        <v>-0.01199431182989942</v>
-      </c>
-    </row>
-    <row r="48" spans="1:4">
+        <v>0.0218100303294348</v>
+      </c>
+      <c r="E47">
+        <v>-0.05607608802713368</v>
+      </c>
+      <c r="F47">
+        <v>0.02532487852314461</v>
+      </c>
+      <c r="G47">
+        <v>-0.05992229219509011</v>
+      </c>
+      <c r="H47">
+        <v>0.009517793256999916</v>
+      </c>
+    </row>
+    <row r="48" spans="1:8">
       <c r="A48" s="1" t="s">
-        <v>49</v>
+        <v>53</v>
       </c>
       <c r="B48">
-        <v>-0.02710948433025358</v>
+        <v>-0.02226364915101699</v>
       </c>
       <c r="C48">
-        <v>-0.02370773962464678</v>
+        <v>0.021509188475248</v>
       </c>
       <c r="D48">
-        <v>-0.04587622437762678</v>
-      </c>
-    </row>
-    <row r="49" spans="1:4">
+        <v>0.06501048875473915</v>
+      </c>
+      <c r="E48">
+        <v>-0.07023616182096948</v>
+      </c>
+      <c r="F48">
+        <v>-0.01593416821903443</v>
+      </c>
+      <c r="G48">
+        <v>-0.04139235399705249</v>
+      </c>
+      <c r="H48">
+        <v>-0.04277281490599691</v>
+      </c>
+    </row>
+    <row r="49" spans="1:8">
       <c r="A49" s="1" t="s">
-        <v>50</v>
+        <v>54</v>
       </c>
       <c r="B49">
         <v>0</v>
@@ -1377,38 +1965,74 @@
       <c r="D49">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="1:4">
+      <c r="E49">
+        <v>0</v>
+      </c>
+      <c r="F49">
+        <v>0</v>
+      </c>
+      <c r="G49">
+        <v>0</v>
+      </c>
+      <c r="H49">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="1:8">
       <c r="A50" s="1" t="s">
-        <v>51</v>
+        <v>55</v>
       </c>
       <c r="B50">
-        <v>-0.08781304415706095</v>
+        <v>-0.07434473644268874</v>
       </c>
       <c r="C50">
-        <v>-0.09851492515588318</v>
+        <v>0.07864961135730071</v>
       </c>
       <c r="D50">
-        <v>-0.03181046487119153</v>
-      </c>
-    </row>
-    <row r="51" spans="1:4">
+        <v>0.04928015943391231</v>
+      </c>
+      <c r="E50">
+        <v>-0.07644888098821079</v>
+      </c>
+      <c r="F50">
+        <v>0.03943876075153865</v>
+      </c>
+      <c r="G50">
+        <v>-0.01651406444453333</v>
+      </c>
+      <c r="H50">
+        <v>-0.04379770876859448</v>
+      </c>
+    </row>
+    <row r="51" spans="1:8">
       <c r="A51" s="1" t="s">
-        <v>52</v>
+        <v>56</v>
       </c>
       <c r="B51">
-        <v>-0.01539945944178629</v>
+        <v>-0.01273273260975283</v>
       </c>
       <c r="C51">
-        <v>-0.03759378572962727</v>
+        <v>0.02254518083471934</v>
       </c>
       <c r="D51">
-        <v>-0.08767755275852566</v>
-      </c>
-    </row>
-    <row r="52" spans="1:4">
+        <v>0.08904498619934972</v>
+      </c>
+      <c r="E51">
+        <v>-0.04841859385699574</v>
+      </c>
+      <c r="F51">
+        <v>-0.006861469588538259</v>
+      </c>
+      <c r="G51">
+        <v>-0.01805552965533808</v>
+      </c>
+      <c r="H51">
+        <v>-0.07139188289295328</v>
+      </c>
+    </row>
+    <row r="52" spans="1:8">
       <c r="A52" s="1" t="s">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="B52">
         <v>0</v>
@@ -1419,66 +2043,126 @@
       <c r="D52">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="1:4">
+      <c r="E52">
+        <v>0</v>
+      </c>
+      <c r="F52">
+        <v>0</v>
+      </c>
+      <c r="G52">
+        <v>0</v>
+      </c>
+      <c r="H52">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="1:8">
       <c r="A53" s="1" t="s">
-        <v>54</v>
+        <v>58</v>
       </c>
       <c r="B53">
-        <v>-0.08497823916330231</v>
+        <v>-0.09946132900997816</v>
       </c>
       <c r="C53">
-        <v>-0.09168913796226101</v>
+        <v>0.09517960795541011</v>
       </c>
       <c r="D53">
-        <v>0.01509950231398188</v>
-      </c>
-    </row>
-    <row r="54" spans="1:4">
+        <v>-0.01519871935782349</v>
+      </c>
+      <c r="E53">
+        <v>-0.1031094521735732</v>
+      </c>
+      <c r="F53">
+        <v>0.01232065788910213</v>
+      </c>
+      <c r="G53">
+        <v>-0.07700677155536088</v>
+      </c>
+      <c r="H53">
+        <v>0.06457912360108441</v>
+      </c>
+    </row>
+    <row r="54" spans="1:8">
       <c r="A54" s="1" t="s">
-        <v>55</v>
+        <v>59</v>
       </c>
       <c r="B54">
-        <v>-0.04085343458940228</v>
+        <v>-0.03129470364136812</v>
       </c>
       <c r="C54">
-        <v>-0.04085937977148376</v>
+        <v>0.03562433004917023</v>
       </c>
       <c r="D54">
-        <v>-0.05812451974496686</v>
-      </c>
-    </row>
-    <row r="55" spans="1:4">
+        <v>0.07776219385240711</v>
+      </c>
+      <c r="E54">
+        <v>-0.06951518616012858</v>
+      </c>
+      <c r="F54">
+        <v>-0.01846222107890338</v>
+      </c>
+      <c r="G54">
+        <v>-0.04325919130872028</v>
+      </c>
+      <c r="H54">
+        <v>-0.1009617965425564</v>
+      </c>
+    </row>
+    <row r="55" spans="1:8">
       <c r="A55" s="1" t="s">
-        <v>56</v>
+        <v>60</v>
       </c>
       <c r="B55">
-        <v>-0.08686864216168466</v>
+        <v>-0.09438962328275076</v>
       </c>
       <c r="C55">
-        <v>-0.07168695257061394</v>
+        <v>0.07838653725616125</v>
       </c>
       <c r="D55">
-        <v>0.01995199679118921</v>
-      </c>
-    </row>
-    <row r="56" spans="1:4">
+        <v>-0.02247578794244285</v>
+      </c>
+      <c r="E55">
+        <v>-0.06835737242503737</v>
+      </c>
+      <c r="F55">
+        <v>0.0199638581400251</v>
+      </c>
+      <c r="G55">
+        <v>-0.03362651885037294</v>
+      </c>
+      <c r="H55">
+        <v>0.03950522122274203</v>
+      </c>
+    </row>
+    <row r="56" spans="1:8">
       <c r="A56" s="1" t="s">
-        <v>57</v>
+        <v>61</v>
       </c>
       <c r="B56">
-        <v>-0.1462711585258096</v>
+        <v>-0.1509913601126646</v>
       </c>
       <c r="C56">
-        <v>-0.09822250079175236</v>
+        <v>0.1119575957428641</v>
       </c>
       <c r="D56">
-        <v>0.02120159740242122</v>
-      </c>
-    </row>
-    <row r="57" spans="1:4">
+        <v>-0.02565979012697498</v>
+      </c>
+      <c r="E56">
+        <v>-0.05479244855228793</v>
+      </c>
+      <c r="F56">
+        <v>0.0157808769286001</v>
+      </c>
+      <c r="G56">
+        <v>-0.04538296318767285</v>
+      </c>
+      <c r="H56">
+        <v>0.05062774176834046</v>
+      </c>
+    </row>
+    <row r="57" spans="1:8">
       <c r="A57" s="1" t="s">
-        <v>58</v>
+        <v>62</v>
       </c>
       <c r="B57">
         <v>0</v>
@@ -1489,66 +2173,126 @@
       <c r="D57">
         <v>0</v>
       </c>
-    </row>
-    <row r="58" spans="1:4">
+      <c r="E57">
+        <v>0</v>
+      </c>
+      <c r="F57">
+        <v>0</v>
+      </c>
+      <c r="G57">
+        <v>0</v>
+      </c>
+      <c r="H57">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="1:8">
       <c r="A58" s="1" t="s">
-        <v>59</v>
+        <v>63</v>
       </c>
       <c r="B58">
-        <v>-0.04312878372731845</v>
+        <v>-0.03660159165001627</v>
       </c>
       <c r="C58">
-        <v>0.01514240453841587</v>
+        <v>0.008565494695301625</v>
       </c>
       <c r="D58">
-        <v>-0.4053368195916474</v>
-      </c>
-    </row>
-    <row r="59" spans="1:4">
+        <v>0.3692479093618222</v>
+      </c>
+      <c r="E58">
+        <v>-0.2394794778458531</v>
+      </c>
+      <c r="F58">
+        <v>0.06734284793979579</v>
+      </c>
+      <c r="G58">
+        <v>0.5190813079134414</v>
+      </c>
+      <c r="H58">
+        <v>0.2794174617607843</v>
+      </c>
+    </row>
+    <row r="59" spans="1:8">
       <c r="A59" s="1" t="s">
-        <v>60</v>
+        <v>64</v>
       </c>
       <c r="B59">
-        <v>-0.1336131227217111</v>
+        <v>-0.15185505278523</v>
       </c>
       <c r="C59">
-        <v>0.2043886262897094</v>
+        <v>-0.1899476008966467</v>
       </c>
       <c r="D59">
-        <v>-0.03554546241349335</v>
-      </c>
-    </row>
-    <row r="60" spans="1:4">
+        <v>0.0447483182898273</v>
+      </c>
+      <c r="E59">
+        <v>-0.01202989257847752</v>
+      </c>
+      <c r="F59">
+        <v>-0.02702161827172002</v>
+      </c>
+      <c r="G59">
+        <v>0.01595647671213092</v>
+      </c>
+      <c r="H59">
+        <v>0.01961074991737264</v>
+      </c>
+    </row>
+    <row r="60" spans="1:8">
       <c r="A60" s="1" t="s">
-        <v>61</v>
+        <v>65</v>
       </c>
       <c r="B60">
-        <v>-0.2539317401132298</v>
+        <v>-0.2350211684133127</v>
       </c>
       <c r="C60">
-        <v>-0.07186979174483815</v>
+        <v>0.07985387275133637</v>
       </c>
       <c r="D60">
-        <v>-0.1463326353151223</v>
-      </c>
-    </row>
-    <row r="61" spans="1:4">
+        <v>0.1521435982570817</v>
+      </c>
+      <c r="E60">
+        <v>0.3274081728759013</v>
+      </c>
+      <c r="F60">
+        <v>0.1529662999090127</v>
+      </c>
+      <c r="G60">
+        <v>0.03264649332131622</v>
+      </c>
+      <c r="H60">
+        <v>0.04848350781240016</v>
+      </c>
+    </row>
+    <row r="61" spans="1:8">
       <c r="A61" s="1" t="s">
-        <v>62</v>
+        <v>66</v>
       </c>
       <c r="B61">
-        <v>-0.05157270751003151</v>
+        <v>-0.04567865921720935</v>
       </c>
       <c r="C61">
-        <v>-0.05389585908646299</v>
+        <v>0.05470255875153693</v>
       </c>
       <c r="D61">
-        <v>-0.07786803929345422</v>
-      </c>
-    </row>
-    <row r="62" spans="1:4">
+        <v>0.08263864174410121</v>
+      </c>
+      <c r="E61">
+        <v>-0.03321883640030852</v>
+      </c>
+      <c r="F61">
+        <v>-0.004368410819118626</v>
+      </c>
+      <c r="G61">
+        <v>-0.04831977443977246</v>
+      </c>
+      <c r="H61">
+        <v>-0.06321763189020455</v>
+      </c>
+    </row>
+    <row r="62" spans="1:8">
       <c r="A62" s="1" t="s">
-        <v>63</v>
+        <v>67</v>
       </c>
       <c r="B62">
         <v>0</v>
@@ -1559,108 +2303,204 @@
       <c r="D62">
         <v>0</v>
       </c>
-    </row>
-    <row r="63" spans="1:4">
+      <c r="E62">
+        <v>0</v>
+      </c>
+      <c r="F62">
+        <v>0</v>
+      </c>
+      <c r="G62">
+        <v>0</v>
+      </c>
+      <c r="H62">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="1:8">
       <c r="A63" s="1" t="s">
-        <v>64</v>
+        <v>68</v>
       </c>
       <c r="B63">
-        <v>-0.01801704573693193</v>
+        <v>-0.0179888450626343</v>
       </c>
       <c r="C63">
-        <v>-0.02897003674446773</v>
+        <v>0.02821099563075622</v>
       </c>
       <c r="D63">
-        <v>-0.03298677159352088</v>
-      </c>
-    </row>
-    <row r="64" spans="1:4">
+        <v>0.05868951621514099</v>
+      </c>
+      <c r="E63">
+        <v>-0.06913424683595931</v>
+      </c>
+      <c r="F63">
+        <v>0.01774434312042958</v>
+      </c>
+      <c r="G63">
+        <v>-0.02305830894347114</v>
+      </c>
+      <c r="H63">
+        <v>-0.037085968164218</v>
+      </c>
+    </row>
+    <row r="64" spans="1:8">
       <c r="A64" s="1" t="s">
-        <v>65</v>
+        <v>69</v>
       </c>
       <c r="B64">
-        <v>-0.05655200360333314</v>
+        <v>-0.0590024477152637</v>
       </c>
       <c r="C64">
-        <v>-0.05562972693652516</v>
+        <v>0.06775978615764316</v>
       </c>
       <c r="D64">
-        <v>-0.0480814520457431</v>
-      </c>
-    </row>
-    <row r="65" spans="1:4">
+        <v>0.04557818484154297</v>
+      </c>
+      <c r="E64">
+        <v>-0.04433251791360879</v>
+      </c>
+      <c r="F64">
+        <v>-0.02617503336346888</v>
+      </c>
+      <c r="G64">
+        <v>-0.07588908242745825</v>
+      </c>
+      <c r="H64">
+        <v>-0.01742860737420044</v>
+      </c>
+    </row>
+    <row r="65" spans="1:8">
       <c r="A65" s="1" t="s">
-        <v>66</v>
+        <v>70</v>
       </c>
       <c r="B65">
-        <v>-0.06767148430802965</v>
+        <v>-0.05683407092006391</v>
       </c>
       <c r="C65">
-        <v>-0.02568635905631367</v>
+        <v>0.02354166064703545</v>
       </c>
       <c r="D65">
-        <v>-0.09973081049659518</v>
-      </c>
-    </row>
-    <row r="66" spans="1:4">
+        <v>0.1182217878502047</v>
+      </c>
+      <c r="E65">
+        <v>-0.02002466686670816</v>
+      </c>
+      <c r="F65">
+        <v>0.0192233241697631</v>
+      </c>
+      <c r="G65">
+        <v>0.03514950665897804</v>
+      </c>
+      <c r="H65">
+        <v>0.01664017858803876</v>
+      </c>
+    </row>
+    <row r="66" spans="1:8">
       <c r="A66" s="1" t="s">
-        <v>67</v>
+        <v>71</v>
       </c>
       <c r="B66">
-        <v>-0.05712983779158307</v>
+        <v>-0.05160199751234464</v>
       </c>
       <c r="C66">
-        <v>-0.06650781319390528</v>
+        <v>0.06936767263336695</v>
       </c>
       <c r="D66">
-        <v>-0.09571684701547163</v>
-      </c>
-    </row>
-    <row r="67" spans="1:4">
+        <v>0.1146354909593193</v>
+      </c>
+      <c r="E66">
+        <v>-0.03985422678130247</v>
+      </c>
+      <c r="F66">
+        <v>-0.005744361155977134</v>
+      </c>
+      <c r="G66">
+        <v>-0.02934500314155521</v>
+      </c>
+      <c r="H66">
+        <v>-0.0600210730884863</v>
+      </c>
+    </row>
+    <row r="67" spans="1:8">
       <c r="A67" s="1" t="s">
-        <v>68</v>
+        <v>72</v>
       </c>
       <c r="B67">
-        <v>-0.0554532557971615</v>
+        <v>-0.04473490092956517</v>
       </c>
       <c r="C67">
-        <v>-0.03703272915458428</v>
+        <v>0.02886224442374974</v>
       </c>
       <c r="D67">
-        <v>-0.009659343780624949</v>
-      </c>
-    </row>
-    <row r="68" spans="1:4">
+        <v>0.02154657812369183</v>
+      </c>
+      <c r="E67">
+        <v>-0.02619683665822254</v>
+      </c>
+      <c r="F67">
+        <v>0.001184526816880308</v>
+      </c>
+      <c r="G67">
+        <v>0.005021236892542732</v>
+      </c>
+      <c r="H67">
+        <v>-0.03569279481182654</v>
+      </c>
+    </row>
+    <row r="68" spans="1:8">
       <c r="A68" s="1" t="s">
-        <v>69</v>
+        <v>73</v>
       </c>
       <c r="B68">
-        <v>-0.1431023557498607</v>
+        <v>-0.163048452794757</v>
       </c>
       <c r="C68">
-        <v>0.2868575652815837</v>
+        <v>-0.2411753493761804</v>
       </c>
       <c r="D68">
-        <v>0.03228836990981985</v>
-      </c>
-    </row>
-    <row r="69" spans="1:4">
+        <v>-0.004539907548811522</v>
+      </c>
+      <c r="E68">
+        <v>-0.05710012798646743</v>
+      </c>
+      <c r="F68">
+        <v>0.02733092411579395</v>
+      </c>
+      <c r="G68">
+        <v>0.01244751325631877</v>
+      </c>
+      <c r="H68">
+        <v>0.007099842030848058</v>
+      </c>
+    </row>
+    <row r="69" spans="1:8">
       <c r="A69" s="1" t="s">
-        <v>70</v>
+        <v>74</v>
       </c>
       <c r="B69">
-        <v>-0.09733693762543916</v>
+        <v>-0.09044923940239158</v>
       </c>
       <c r="C69">
-        <v>-0.0911254961059825</v>
+        <v>0.09866465379461045</v>
       </c>
       <c r="D69">
-        <v>-0.01498179153026953</v>
-      </c>
-    </row>
-    <row r="70" spans="1:4">
+        <v>0.03523990800755458</v>
+      </c>
+      <c r="E69">
+        <v>-0.05276253585976087</v>
+      </c>
+      <c r="F69">
+        <v>0.002981761985181306</v>
+      </c>
+      <c r="G69">
+        <v>-0.05797169653350027</v>
+      </c>
+      <c r="H69">
+        <v>-0.01346444457892388</v>
+      </c>
+    </row>
+    <row r="70" spans="1:8">
       <c r="A70" s="1" t="s">
-        <v>71</v>
+        <v>75</v>
       </c>
       <c r="B70">
         <v>0</v>
@@ -1671,360 +2511,672 @@
       <c r="D70">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="1:4">
+      <c r="E70">
+        <v>0</v>
+      </c>
+      <c r="F70">
+        <v>0</v>
+      </c>
+      <c r="G70">
+        <v>0</v>
+      </c>
+      <c r="H70">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="1:8">
       <c r="A71" s="1" t="s">
-        <v>72</v>
+        <v>76</v>
       </c>
       <c r="B71">
-        <v>-0.1272857057087261</v>
+        <v>-0.1544587884571235</v>
       </c>
       <c r="C71">
-        <v>0.2504016797828382</v>
+        <v>-0.2353962522040015</v>
       </c>
       <c r="D71">
-        <v>-0.02621874756843895</v>
-      </c>
-    </row>
-    <row r="72" spans="1:4">
+        <v>0.02687654253148002</v>
+      </c>
+      <c r="E71">
+        <v>-0.06428143386690337</v>
+      </c>
+      <c r="F71">
+        <v>0.02364635957532426</v>
+      </c>
+      <c r="G71">
+        <v>-0.05038959564388451</v>
+      </c>
+      <c r="H71">
+        <v>-0.004506029047852911</v>
+      </c>
+    </row>
+    <row r="72" spans="1:8">
       <c r="A72" s="1" t="s">
-        <v>73</v>
+        <v>77</v>
       </c>
       <c r="B72">
-        <v>-0.09760512981004661</v>
+        <v>-0.1037424405462651</v>
       </c>
       <c r="C72">
-        <v>-0.05314962326878803</v>
+        <v>0.05344810296215075</v>
       </c>
       <c r="D72">
-        <v>-0.06483674688090658</v>
-      </c>
-    </row>
-    <row r="73" spans="1:4">
+        <v>0.08048268790617336</v>
+      </c>
+      <c r="E72">
+        <v>0.0007462732038884489</v>
+      </c>
+      <c r="F72">
+        <v>0.03710719893635702</v>
+      </c>
+      <c r="G72">
+        <v>-0.05537216739197231</v>
+      </c>
+      <c r="H72">
+        <v>-0.01753383137690845</v>
+      </c>
+    </row>
+    <row r="73" spans="1:8">
       <c r="A73" s="1" t="s">
-        <v>74</v>
+        <v>78</v>
       </c>
       <c r="B73">
-        <v>-0.3107142365372558</v>
+        <v>-0.2745262355863351</v>
       </c>
       <c r="C73">
-        <v>0.006464259948124756</v>
+        <v>0.03784986097695015</v>
       </c>
       <c r="D73">
-        <v>-0.3241365921222613</v>
-      </c>
-    </row>
-    <row r="74" spans="1:4">
+        <v>0.2776793383000928</v>
+      </c>
+      <c r="E73">
+        <v>0.6220393943689513</v>
+      </c>
+      <c r="F73">
+        <v>0.2117877575178201</v>
+      </c>
+      <c r="G73">
+        <v>0.06983133249724459</v>
+      </c>
+      <c r="H73">
+        <v>0.05932252847158619</v>
+      </c>
+    </row>
+    <row r="74" spans="1:8">
       <c r="A74" s="1" t="s">
-        <v>75</v>
+        <v>79</v>
       </c>
       <c r="B74">
-        <v>-0.105219330366568</v>
+        <v>-0.109979482774841</v>
       </c>
       <c r="C74">
-        <v>-0.0908836156584332</v>
+        <v>0.09083902640681199</v>
       </c>
       <c r="D74">
-        <v>-0.0005956011960160619</v>
-      </c>
-    </row>
-    <row r="75" spans="1:4">
+        <v>-0.01846487709456669</v>
+      </c>
+      <c r="E74">
+        <v>-0.08039204066030231</v>
+      </c>
+      <c r="F74">
+        <v>0.03967480546619235</v>
+      </c>
+      <c r="G74">
+        <v>-0.02842702009145677</v>
+      </c>
+      <c r="H74">
+        <v>0.07918859899782003</v>
+      </c>
+    </row>
+    <row r="75" spans="1:8">
       <c r="A75" s="1" t="s">
-        <v>76</v>
+        <v>80</v>
       </c>
       <c r="B75">
-        <v>-0.2572636480843994</v>
+        <v>-0.257278702046737</v>
       </c>
       <c r="C75">
-        <v>-0.1160270941711661</v>
+        <v>0.1388665319724043</v>
       </c>
       <c r="D75">
-        <v>0.1171617252284413</v>
-      </c>
-    </row>
-    <row r="76" spans="1:4">
+        <v>-0.1310625852187481</v>
+      </c>
+      <c r="E75">
+        <v>-0.05336718891714751</v>
+      </c>
+      <c r="F75">
+        <v>-0.02022086260375689</v>
+      </c>
+      <c r="G75">
+        <v>-0.03094733529544687</v>
+      </c>
+      <c r="H75">
+        <v>0.1719197448223262</v>
+      </c>
+    </row>
+    <row r="76" spans="1:8">
       <c r="A76" s="1" t="s">
-        <v>77</v>
+        <v>81</v>
       </c>
       <c r="B76">
-        <v>-0.1155880240391308</v>
+        <v>-0.1295933487851305</v>
       </c>
       <c r="C76">
-        <v>-0.09270653525872033</v>
+        <v>0.1000840207944138</v>
       </c>
       <c r="D76">
-        <v>0.02545158218039031</v>
-      </c>
-    </row>
-    <row r="77" spans="1:4">
+        <v>-0.03063156475913547</v>
+      </c>
+      <c r="E76">
+        <v>-0.1028435072096962</v>
+      </c>
+      <c r="F76">
+        <v>-0.01296205327439122</v>
+      </c>
+      <c r="G76">
+        <v>-0.0438912461123943</v>
+      </c>
+      <c r="H76">
+        <v>0.05341308621110757</v>
+      </c>
+    </row>
+    <row r="77" spans="1:8">
       <c r="A77" s="1" t="s">
-        <v>78</v>
+        <v>82</v>
       </c>
       <c r="B77">
-        <v>-0.08654513378388447</v>
+        <v>-0.06931785276913503</v>
       </c>
       <c r="C77">
-        <v>-0.02736037070889575</v>
+        <v>0.05756572479442474</v>
       </c>
       <c r="D77">
-        <v>-0.09707559633427236</v>
-      </c>
-    </row>
-    <row r="78" spans="1:4">
+        <v>0.1219097517612361</v>
+      </c>
+      <c r="E77">
+        <v>-0.06171404752848322</v>
+      </c>
+      <c r="F77">
+        <v>-0.2903803575927124</v>
+      </c>
+      <c r="G77">
+        <v>0.1558647888833855</v>
+      </c>
+      <c r="H77">
+        <v>0.09727129560768914</v>
+      </c>
+    </row>
+    <row r="78" spans="1:8">
       <c r="A78" s="1" t="s">
-        <v>79</v>
+        <v>83</v>
       </c>
       <c r="B78">
-        <v>-0.04544862266617831</v>
+        <v>-0.04727801407961471</v>
       </c>
       <c r="C78">
-        <v>-0.04092949164204101</v>
+        <v>0.05544483650993931</v>
       </c>
       <c r="D78">
-        <v>-0.09464155284102951</v>
-      </c>
-    </row>
-    <row r="79" spans="1:4">
+        <v>0.1231097571472143</v>
+      </c>
+      <c r="E78">
+        <v>-0.0365550487475718</v>
+      </c>
+      <c r="F78">
+        <v>0.001142861141688897</v>
+      </c>
+      <c r="G78">
+        <v>-0.03466002636370225</v>
+      </c>
+      <c r="H78">
+        <v>-0.0174618445705776</v>
+      </c>
+    </row>
+    <row r="79" spans="1:8">
       <c r="A79" s="1" t="s">
-        <v>80</v>
+        <v>84</v>
       </c>
       <c r="B79">
-        <v>0.003308004689489886</v>
+        <v>-0.04051813960271542</v>
       </c>
       <c r="C79">
-        <v>0.001768185216589629</v>
+        <v>0.06446655382765534</v>
       </c>
       <c r="D79">
-        <v>-0.01483863603383925</v>
-      </c>
-    </row>
-    <row r="80" spans="1:4">
+        <v>-0.05909436642852553</v>
+      </c>
+      <c r="E79">
+        <v>-0.1196385709292366</v>
+      </c>
+      <c r="F79">
+        <v>0.02463096826465011</v>
+      </c>
+      <c r="G79">
+        <v>-0.2800038704669972</v>
+      </c>
+      <c r="H79">
+        <v>0.7109940032512081</v>
+      </c>
+    </row>
+    <row r="80" spans="1:8">
       <c r="A80" s="1" t="s">
-        <v>81</v>
+        <v>85</v>
       </c>
       <c r="B80">
-        <v>-0.04062337446809356</v>
+        <v>-0.03289394707428046</v>
       </c>
       <c r="C80">
-        <v>-0.03463064542101954</v>
+        <v>0.04020548391765299</v>
       </c>
       <c r="D80">
-        <v>-0.03406650775263036</v>
-      </c>
-    </row>
-    <row r="81" spans="1:4">
+        <v>0.03699477329358055</v>
+      </c>
+      <c r="E80">
+        <v>-0.00295082952125788</v>
+      </c>
+      <c r="F80">
+        <v>-0.04033569419311605</v>
+      </c>
+      <c r="G80">
+        <v>0.009092201177059035</v>
+      </c>
+      <c r="H80">
+        <v>-0.04044812625677541</v>
+      </c>
+    </row>
+    <row r="81" spans="1:8">
       <c r="A81" s="1" t="s">
-        <v>82</v>
+        <v>86</v>
       </c>
       <c r="B81">
-        <v>-0.1543410449996322</v>
+        <v>-0.1445812594108364</v>
       </c>
       <c r="C81">
-        <v>-0.1019521937549388</v>
+        <v>0.1084451965588095</v>
       </c>
       <c r="D81">
-        <v>0.078483755822399</v>
-      </c>
-    </row>
-    <row r="82" spans="1:4">
+        <v>-0.08636206192081453</v>
+      </c>
+      <c r="E81">
+        <v>-0.09838251849807293</v>
+      </c>
+      <c r="F81">
+        <v>-0.01253632325344412</v>
+      </c>
+      <c r="G81">
+        <v>-0.03924976162402093</v>
+      </c>
+      <c r="H81">
+        <v>0.07537163962641062</v>
+      </c>
+    </row>
+    <row r="82" spans="1:8">
       <c r="A82" s="1" t="s">
-        <v>83</v>
+        <v>87</v>
       </c>
       <c r="B82">
-        <v>-0.2474486457965182</v>
+        <v>-0.2533793046259625</v>
       </c>
       <c r="C82">
-        <v>-0.1533851581037575</v>
+        <v>0.1993994259715994</v>
       </c>
       <c r="D82">
-        <v>0.1841305801326162</v>
-      </c>
-    </row>
-    <row r="83" spans="1:4">
+        <v>-0.2240822227580758</v>
+      </c>
+      <c r="E82">
+        <v>0.07001351261711564</v>
+      </c>
+      <c r="F82">
+        <v>6.281055662609528e-05</v>
+      </c>
+      <c r="G82">
+        <v>-0.3524243184255748</v>
+      </c>
+      <c r="H82">
+        <v>-0.3095160887488459</v>
+      </c>
+    </row>
+    <row r="83" spans="1:8">
       <c r="A83" s="1" t="s">
-        <v>84</v>
+        <v>88</v>
       </c>
       <c r="B83">
-        <v>-0.04367321081657314</v>
+        <v>-0.02879558177112777</v>
       </c>
       <c r="C83">
-        <v>-0.03966052489365067</v>
+        <v>0.0484818209964776</v>
       </c>
       <c r="D83">
-        <v>-0.07238736041862526</v>
-      </c>
-    </row>
-    <row r="84" spans="1:4">
+        <v>0.05259264457955597</v>
+      </c>
+      <c r="E83">
+        <v>-0.003684293357355302</v>
+      </c>
+      <c r="F83">
+        <v>-0.0233779065990066</v>
+      </c>
+      <c r="G83">
+        <v>0.005804990113370913</v>
+      </c>
+      <c r="H83">
+        <v>-0.02356372555364524</v>
+      </c>
+    </row>
+    <row r="84" spans="1:8">
       <c r="A84" s="1" t="s">
-        <v>85</v>
+        <v>89</v>
       </c>
       <c r="B84">
-        <v>0</v>
+        <v>-0.0001725568221073048</v>
       </c>
       <c r="C84">
-        <v>0</v>
+        <v>0.00228286185791894</v>
       </c>
       <c r="D84">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="85" spans="1:4">
+        <v>0.003483053766914476</v>
+      </c>
+      <c r="E84">
+        <v>-0.01004137425158535</v>
+      </c>
+      <c r="F84">
+        <v>0.002980811180788049</v>
+      </c>
+      <c r="G84">
+        <v>0.005214286079983538</v>
+      </c>
+      <c r="H84">
+        <v>-0.007566208315111779</v>
+      </c>
+    </row>
+    <row r="85" spans="1:8">
       <c r="A85" s="1" t="s">
-        <v>86</v>
+        <v>90</v>
       </c>
       <c r="B85">
-        <v>-0.1964666516925771</v>
+        <v>-0.1837852530408815</v>
       </c>
       <c r="C85">
-        <v>-0.09840101274837966</v>
+        <v>0.1137008278863695</v>
       </c>
       <c r="D85">
-        <v>0.1012788716275134</v>
-      </c>
-    </row>
-    <row r="86" spans="1:4">
+        <v>-0.1033473993087917</v>
+      </c>
+      <c r="E85">
+        <v>-0.0344097782383862</v>
+      </c>
+      <c r="F85">
+        <v>0.03231130131682151</v>
+      </c>
+      <c r="G85">
+        <v>-0.0873362711532522</v>
+      </c>
+      <c r="H85">
+        <v>0.1510867641885165</v>
+      </c>
+    </row>
+    <row r="86" spans="1:8">
       <c r="A86" s="1" t="s">
-        <v>87</v>
+        <v>91</v>
       </c>
       <c r="B86">
-        <v>-0.01485414180092812</v>
+        <v>-0.01877093370308254</v>
       </c>
       <c r="C86">
-        <v>-0.02086936332917744</v>
+        <v>0.01187835376494603</v>
       </c>
       <c r="D86">
-        <v>-0.1302984647484803</v>
-      </c>
-    </row>
-    <row r="87" spans="1:4">
+        <v>0.1162436551333423</v>
+      </c>
+      <c r="E86">
+        <v>-0.03642746218273189</v>
+      </c>
+      <c r="F86">
+        <v>-0.009045430690779045</v>
+      </c>
+      <c r="G86">
+        <v>-0.04232284922222772</v>
+      </c>
+      <c r="H86">
+        <v>-0.05611444804169273</v>
+      </c>
+    </row>
+    <row r="87" spans="1:8">
       <c r="A87" s="1" t="s">
-        <v>88</v>
+        <v>92</v>
       </c>
       <c r="B87">
-        <v>-0.03316599923504409</v>
+        <v>-0.03410214008366524</v>
       </c>
       <c r="C87">
-        <v>0.007713700237579535</v>
+        <v>0.01331239602638285</v>
       </c>
       <c r="D87">
-        <v>-0.1275085309173185</v>
-      </c>
-    </row>
-    <row r="88" spans="1:4">
+        <v>0.1431420166860244</v>
+      </c>
+      <c r="E87">
+        <v>-0.08560018268319</v>
+      </c>
+      <c r="F87">
+        <v>-0.06640811305140451</v>
+      </c>
+      <c r="G87">
+        <v>0.0294794322799811</v>
+      </c>
+      <c r="H87">
+        <v>-0.02396950529662145</v>
+      </c>
+    </row>
+    <row r="88" spans="1:8">
       <c r="A88" s="1" t="s">
-        <v>89</v>
+        <v>93</v>
       </c>
       <c r="B88">
-        <v>-0.1015542549166435</v>
+        <v>-0.08594390609756858</v>
       </c>
       <c r="C88">
-        <v>-0.08717080330732366</v>
+        <v>0.06842219455010162</v>
       </c>
       <c r="D88">
-        <v>-0.02729031566539226</v>
-      </c>
-    </row>
-    <row r="89" spans="1:4">
+        <v>0.02755220544910925</v>
+      </c>
+      <c r="E88">
+        <v>-0.05934957592049939</v>
+      </c>
+      <c r="F88">
+        <v>-0.002122131204960062</v>
+      </c>
+      <c r="G88">
+        <v>-0.04710747633663222</v>
+      </c>
+      <c r="H88">
+        <v>-0.04058494566283212</v>
+      </c>
+    </row>
+    <row r="89" spans="1:8">
       <c r="A89" s="1" t="s">
-        <v>90</v>
+        <v>94</v>
       </c>
       <c r="B89">
-        <v>-0.2028976403187363</v>
+        <v>-0.2354352792111242</v>
       </c>
       <c r="C89">
-        <v>0.3660881429000103</v>
+        <v>-0.3718028569736893</v>
       </c>
       <c r="D89">
-        <v>0.04007480490711595</v>
-      </c>
-    </row>
-    <row r="90" spans="1:4">
+        <v>-0.009854032993864555</v>
+      </c>
+      <c r="E89">
+        <v>-0.07995875749097779</v>
+      </c>
+      <c r="F89">
+        <v>-0.06594194530761188</v>
+      </c>
+      <c r="G89">
+        <v>-0.03773251116581224</v>
+      </c>
+      <c r="H89">
+        <v>-0.03007907051717398</v>
+      </c>
+    </row>
+    <row r="90" spans="1:8">
       <c r="A90" s="1" t="s">
-        <v>91</v>
+        <v>95</v>
       </c>
       <c r="B90">
-        <v>-0.1910343554144464</v>
+        <v>-0.2102323054599501</v>
       </c>
       <c r="C90">
-        <v>0.3027132533997069</v>
+        <v>-0.2872174595717699</v>
       </c>
       <c r="D90">
-        <v>0.03138323907580402</v>
-      </c>
-    </row>
-    <row r="91" spans="1:4">
+        <v>0.005896854232625536</v>
+      </c>
+      <c r="E90">
+        <v>-0.05902329587968538</v>
+      </c>
+      <c r="F90">
+        <v>-0.007294630276034801</v>
+      </c>
+      <c r="G90">
+        <v>0.0149587245613283</v>
+      </c>
+      <c r="H90">
+        <v>-0.05706043075856718</v>
+      </c>
+    </row>
+    <row r="91" spans="1:8">
       <c r="A91" s="1" t="s">
-        <v>92</v>
+        <v>96</v>
       </c>
       <c r="B91">
-        <v>-0.1962589008564839</v>
+        <v>-0.1878869811950756</v>
       </c>
       <c r="C91">
-        <v>-0.1583035114111316</v>
+        <v>0.1604833207102901</v>
       </c>
       <c r="D91">
-        <v>0.0718268519904654</v>
-      </c>
-    </row>
-    <row r="92" spans="1:4">
+        <v>-0.0871986918878622</v>
+      </c>
+      <c r="E91">
+        <v>-0.076884250750653</v>
+      </c>
+      <c r="F91">
+        <v>-0.0005511102775258446</v>
+      </c>
+      <c r="G91">
+        <v>-0.03658466957686791</v>
+      </c>
+      <c r="H91">
+        <v>0.1574504687100192</v>
+      </c>
+    </row>
+    <row r="92" spans="1:8">
       <c r="A92" s="1" t="s">
-        <v>93</v>
+        <v>97</v>
       </c>
       <c r="B92">
-        <v>-0.175768856936752</v>
+        <v>-0.1922714199632758</v>
       </c>
       <c r="C92">
-        <v>0.2682571260409108</v>
+        <v>-0.285430717553099</v>
       </c>
       <c r="D92">
-        <v>-0.01076938014348469</v>
-      </c>
-    </row>
-    <row r="93" spans="1:4">
+        <v>0.002121042445270399</v>
+      </c>
+      <c r="E92">
+        <v>-0.08194763360158043</v>
+      </c>
+      <c r="F92">
+        <v>-0.0440640067806418</v>
+      </c>
+      <c r="G92">
+        <v>-0.0405266063482195</v>
+      </c>
+      <c r="H92">
+        <v>-0.0378187890419974</v>
+      </c>
+    </row>
+    <row r="93" spans="1:8">
       <c r="A93" s="1" t="s">
-        <v>94</v>
+        <v>98</v>
       </c>
       <c r="B93">
-        <v>-0.2142792929245154</v>
+        <v>-0.230949512899136</v>
       </c>
       <c r="C93">
-        <v>0.3206037909233712</v>
+        <v>-0.3054637759661586</v>
       </c>
       <c r="D93">
-        <v>0.0158125081757623</v>
-      </c>
-    </row>
-    <row r="94" spans="1:4">
+        <v>-0.009789775840799037</v>
+      </c>
+      <c r="E93">
+        <v>-0.04234955027688107</v>
+      </c>
+      <c r="F93">
+        <v>0.02457709109634476</v>
+      </c>
+      <c r="G93">
+        <v>-0.02954538477528638</v>
+      </c>
+      <c r="H93">
+        <v>-0.01614650610760365</v>
+      </c>
+    </row>
+    <row r="94" spans="1:8">
       <c r="A94" s="1" t="s">
-        <v>95</v>
+        <v>99</v>
       </c>
       <c r="B94">
-        <v>-0.3807512618776555</v>
+        <v>-0.3549563927797002</v>
       </c>
       <c r="C94">
-        <v>-0.1993823342139344</v>
+        <v>0.2154711464311756</v>
       </c>
       <c r="D94">
-        <v>0.5043319615993409</v>
-      </c>
-    </row>
-    <row r="95" spans="1:4">
+        <v>-0.4392139641291541</v>
+      </c>
+      <c r="E94">
+        <v>-0.06020158594910544</v>
+      </c>
+      <c r="F94">
+        <v>-0.08940848258074209</v>
+      </c>
+      <c r="G94">
+        <v>0.5988396381902554</v>
+      </c>
+      <c r="H94">
+        <v>-0.1783365794027009</v>
+      </c>
+    </row>
+    <row r="95" spans="1:8">
       <c r="A95" s="1" t="s">
-        <v>96</v>
+        <v>100</v>
       </c>
       <c r="B95">
-        <v>-0.09976870624491047</v>
+        <v>-0.07461203548481248</v>
       </c>
       <c r="C95">
-        <v>0.03273921203742202</v>
+        <v>0.02885908475395426</v>
       </c>
       <c r="D95">
-        <v>-0.1864671106545453</v>
-      </c>
-    </row>
-    <row r="96" spans="1:4">
+        <v>0.1565338898405388</v>
+      </c>
+      <c r="E95">
+        <v>0.2412339052545902</v>
+      </c>
+      <c r="F95">
+        <v>-0.8788678056776656</v>
+      </c>
+      <c r="G95">
+        <v>-0.05181942185382107</v>
+      </c>
+      <c r="H95">
+        <v>0.06600346916384583</v>
+      </c>
+    </row>
+    <row r="96" spans="1:8">
       <c r="A96" s="1" t="s">
-        <v>97</v>
+        <v>101</v>
       </c>
       <c r="B96">
         <v>0</v>
@@ -2035,10 +3187,22 @@
       <c r="D96">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="1:4">
+      <c r="E96">
+        <v>0</v>
+      </c>
+      <c r="F96">
+        <v>0</v>
+      </c>
+      <c r="G96">
+        <v>0</v>
+      </c>
+      <c r="H96">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="1:8">
       <c r="A97" s="1" t="s">
-        <v>98</v>
+        <v>102</v>
       </c>
       <c r="B97">
         <v>0</v>
@@ -2049,24 +3213,48 @@
       <c r="D97">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="1:4">
+      <c r="E97">
+        <v>0</v>
+      </c>
+      <c r="F97">
+        <v>0</v>
+      </c>
+      <c r="G97">
+        <v>0</v>
+      </c>
+      <c r="H97">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="1:8">
       <c r="A98" s="1" t="s">
-        <v>99</v>
+        <v>103</v>
       </c>
       <c r="B98">
-        <v>-0.1708700736463388</v>
+        <v>-0.1714646909488247</v>
       </c>
       <c r="C98">
-        <v>-0.007866241240645853</v>
+        <v>0.03992170102755481</v>
       </c>
       <c r="D98">
-        <v>-0.1843528236852519</v>
-      </c>
-    </row>
-    <row r="99" spans="1:4">
+        <v>0.1647334628101585</v>
+      </c>
+      <c r="E98">
+        <v>0.2498950370005462</v>
+      </c>
+      <c r="F98">
+        <v>0.1308531377132324</v>
+      </c>
+      <c r="G98">
+        <v>-0.004151113371257013</v>
+      </c>
+      <c r="H98">
+        <v>0.009348597640682804</v>
+      </c>
+    </row>
+    <row r="99" spans="1:8">
       <c r="A99" s="1" t="s">
-        <v>100</v>
+        <v>104</v>
       </c>
       <c r="B99">
         <v>0</v>
@@ -2077,10 +3265,22 @@
       <c r="D99">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="1:4">
+      <c r="E99">
+        <v>0</v>
+      </c>
+      <c r="F99">
+        <v>0</v>
+      </c>
+      <c r="G99">
+        <v>0</v>
+      </c>
+      <c r="H99">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="1:8">
       <c r="A100" s="1" t="s">
-        <v>101</v>
+        <v>105</v>
       </c>
       <c r="B100">
         <v>0</v>
@@ -2091,38 +3291,74 @@
       <c r="D100">
         <v>0</v>
       </c>
-    </row>
-    <row r="101" spans="1:4">
+      <c r="E100">
+        <v>0</v>
+      </c>
+      <c r="F100">
+        <v>0</v>
+      </c>
+      <c r="G100">
+        <v>0</v>
+      </c>
+      <c r="H100">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="1:8">
       <c r="A101" s="1" t="s">
-        <v>102</v>
+        <v>106</v>
       </c>
       <c r="B101">
-        <v>-0.009608530042780157</v>
+        <v>-0.008993448831012604</v>
       </c>
       <c r="C101">
-        <v>-0.02792666327602775</v>
+        <v>0.02402280231352251</v>
       </c>
       <c r="D101">
-        <v>-0.04704436373199631</v>
-      </c>
-    </row>
-    <row r="102" spans="1:4">
+        <v>0.06825129993382256</v>
+      </c>
+      <c r="E101">
+        <v>-0.06469557093677436</v>
+      </c>
+      <c r="F101">
+        <v>0.001514992746737494</v>
+      </c>
+      <c r="G101">
+        <v>-0.04888548237141949</v>
+      </c>
+      <c r="H101">
+        <v>-0.07574861008104468</v>
+      </c>
+    </row>
+    <row r="102" spans="1:8">
       <c r="A102" s="1" t="s">
-        <v>103</v>
+        <v>107</v>
       </c>
       <c r="B102">
-        <v>-0.1231749270212453</v>
+        <v>-0.1222856080012521</v>
       </c>
       <c r="C102">
-        <v>-0.08206487422094443</v>
+        <v>0.1094825009092193</v>
       </c>
       <c r="D102">
-        <v>0.02697496958374188</v>
-      </c>
-    </row>
-    <row r="103" spans="1:4">
+        <v>-0.04763905976621241</v>
+      </c>
+      <c r="E102">
+        <v>-0.006211594569430142</v>
+      </c>
+      <c r="F102">
+        <v>-0.02650442609754773</v>
+      </c>
+      <c r="G102">
+        <v>-0.05094161530076172</v>
+      </c>
+      <c r="H102">
+        <v>0.02385661922430131</v>
+      </c>
+    </row>
+    <row r="103" spans="1:8">
       <c r="A103" s="1" t="s">
-        <v>104</v>
+        <v>108</v>
       </c>
       <c r="B103">
         <v>0</v>
@@ -2133,10 +3369,22 @@
       <c r="D103">
         <v>0</v>
       </c>
-    </row>
-    <row r="104" spans="1:4">
+      <c r="E103">
+        <v>0</v>
+      </c>
+      <c r="F103">
+        <v>0</v>
+      </c>
+      <c r="G103">
+        <v>0</v>
+      </c>
+      <c r="H103">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="104" spans="1:8">
       <c r="A104" s="1" t="s">
-        <v>105</v>
+        <v>109</v>
       </c>
       <c r="B104">
         <v>0</v>
@@ -2145,6 +3393,18 @@
         <v>0</v>
       </c>
       <c r="D104">
+        <v>0</v>
+      </c>
+      <c r="E104">
+        <v>0</v>
+      </c>
+      <c r="F104">
+        <v>0</v>
+      </c>
+      <c r="G104">
+        <v>0</v>
+      </c>
+      <c r="H104">
         <v>0</v>
       </c>
     </row>
